--- a/RES/XLS/categories.xls.xlsx
+++ b/RES/XLS/categories.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00 MY\00_PROJECTS\00_BETROOT_PROJECT\RES\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60BB924C-E971-4814-BD37-B5AE7CC8A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04624FC7-B84E-40E1-A99D-BDE80224A92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5BA43CBB-AF9D-459B-8F2C-FD1ADB723FA2}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5BA43CBB-AF9D-459B-8F2C-FD1ADB723FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="2" r:id="rId1"/>
@@ -572,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -687,6 +687,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,8 +747,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – колірна тема 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,112 +1128,115 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
